--- a/data/pca/factorExposure/factorExposure_2014-12-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-12-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.01510616128779038</v>
+        <v>0.01156661469911394</v>
       </c>
       <c r="C2">
-        <v>0.03315250625439881</v>
+        <v>-0.05347559801007282</v>
       </c>
       <c r="D2">
-        <v>0.1323586763875259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06472907255527473</v>
+      </c>
+      <c r="E2">
+        <v>-0.1007539822317902</v>
+      </c>
+      <c r="F2">
+        <v>0.1491067023585823</v>
+      </c>
+      <c r="G2">
+        <v>0.05260934788417246</v>
+      </c>
+      <c r="H2">
+        <v>-0.05083755678576957</v>
+      </c>
+      <c r="I2">
+        <v>-0.03962822774073313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.04372247718042924</v>
+        <v>0.02150984067979656</v>
       </c>
       <c r="C4">
-        <v>0.1192357617166845</v>
+        <v>-0.142305076047995</v>
       </c>
       <c r="D4">
-        <v>0.09847479083536619</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02858312580834095</v>
+      </c>
+      <c r="E4">
+        <v>-0.07700257960412719</v>
+      </c>
+      <c r="F4">
+        <v>0.1067277743132963</v>
+      </c>
+      <c r="G4">
+        <v>-0.05999716903481796</v>
+      </c>
+      <c r="H4">
+        <v>0.02439212053915093</v>
+      </c>
+      <c r="I4">
+        <v>-0.07673680710260733</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02124450327839883</v>
+        <v>0.03018778938127268</v>
       </c>
       <c r="C6">
-        <v>0.04640863954656547</v>
+        <v>-0.05705329936651974</v>
       </c>
       <c r="D6">
-        <v>0.08254485259438046</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.03753109357200595</v>
+      </c>
+      <c r="E6">
+        <v>-0.08781220554252671</v>
+      </c>
+      <c r="F6">
+        <v>0.05379277985693073</v>
+      </c>
+      <c r="G6">
+        <v>0.04134482949440676</v>
+      </c>
+      <c r="H6">
+        <v>0.04505014187667949</v>
+      </c>
+      <c r="I6">
+        <v>-0.0237694017512554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.007581328034674577</v>
+        <v>0.006842907600350405</v>
       </c>
       <c r="C7">
-        <v>0.03643911352597094</v>
+        <v>-0.05413674572500354</v>
       </c>
       <c r="D7">
-        <v>0.06374804981885454</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03466691358272828</v>
+      </c>
+      <c r="E7">
+        <v>-0.07097482271722544</v>
+      </c>
+      <c r="F7">
+        <v>0.007565667914996627</v>
+      </c>
+      <c r="G7">
+        <v>-0.019248988321957</v>
+      </c>
+      <c r="H7">
+        <v>0.04699616391266484</v>
+      </c>
+      <c r="I7">
+        <v>-0.07874625451952742</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.003752045305028147</v>
+        <v>-0.006745433515515202</v>
       </c>
       <c r="C8">
-        <v>0.05081920387060728</v>
+        <v>-0.05925385592245615</v>
       </c>
       <c r="D8">
-        <v>0.08084325762561059</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.01532266831350339</v>
+      </c>
+      <c r="E8">
+        <v>-0.06577081323059331</v>
+      </c>
+      <c r="F8">
+        <v>0.08343424252960659</v>
+      </c>
+      <c r="G8">
+        <v>-0.0302664529339253</v>
+      </c>
+      <c r="H8">
+        <v>-0.04871227454407902</v>
+      </c>
+      <c r="I8">
+        <v>-0.02807006564625195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.02565576650267138</v>
+        <v>0.01243822559069311</v>
       </c>
       <c r="C9">
-        <v>0.09754468470859154</v>
+        <v>-0.1139640920698612</v>
       </c>
       <c r="D9">
-        <v>0.08543309168941293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.02780637098217868</v>
+      </c>
+      <c r="E9">
+        <v>-0.06514528350346299</v>
+      </c>
+      <c r="F9">
+        <v>0.06868728852916672</v>
+      </c>
+      <c r="G9">
+        <v>-0.008886186029434267</v>
+      </c>
+      <c r="H9">
+        <v>0.04161119064807572</v>
+      </c>
+      <c r="I9">
+        <v>-0.07996399127945814</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.2214075242566948</v>
+        <v>0.2421199605205182</v>
       </c>
       <c r="C10">
-        <v>-0.1138961300079881</v>
+        <v>0.08518369212257197</v>
       </c>
       <c r="D10">
-        <v>-0.04336111482442174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01706542728119563</v>
+      </c>
+      <c r="E10">
+        <v>0.0230876615583568</v>
+      </c>
+      <c r="F10">
+        <v>0.01297986775109289</v>
+      </c>
+      <c r="G10">
+        <v>-0.00658273689926819</v>
+      </c>
+      <c r="H10">
+        <v>0.02932271625722769</v>
+      </c>
+      <c r="I10">
+        <v>-0.02387380335031406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.01002972448956733</v>
+        <v>0.0123648845986284</v>
       </c>
       <c r="C11">
-        <v>0.0425511817027891</v>
+        <v>-0.06612899092474669</v>
       </c>
       <c r="D11">
-        <v>0.04688229605648798</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.01477528285158832</v>
+      </c>
+      <c r="E11">
+        <v>-0.05403779195822209</v>
+      </c>
+      <c r="F11">
+        <v>0.003481522480445683</v>
+      </c>
+      <c r="G11">
+        <v>-0.01447081330430244</v>
+      </c>
+      <c r="H11">
+        <v>0.03353409078246786</v>
+      </c>
+      <c r="I11">
+        <v>-0.03841776365595614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.01359396967809549</v>
+        <v>0.01455816398074044</v>
       </c>
       <c r="C12">
-        <v>0.04441954410714969</v>
+        <v>-0.055508471210741</v>
       </c>
       <c r="D12">
-        <v>0.0488333330317233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02137259722282256</v>
+      </c>
+      <c r="E12">
+        <v>-0.04142694785085191</v>
+      </c>
+      <c r="F12">
+        <v>-0.005460688899787095</v>
+      </c>
+      <c r="G12">
+        <v>0.01403836969493539</v>
+      </c>
+      <c r="H12">
+        <v>0.02990947501647791</v>
+      </c>
+      <c r="I12">
+        <v>-0.04329813153430024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.01585624153296584</v>
+        <v>0.005931890479647202</v>
       </c>
       <c r="C13">
-        <v>0.05738345546965294</v>
+        <v>-0.09201351932939333</v>
       </c>
       <c r="D13">
-        <v>0.1274160972200712</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.07828398503293003</v>
+      </c>
+      <c r="E13">
+        <v>-0.1203717451513613</v>
+      </c>
+      <c r="F13">
+        <v>0.05476769712185452</v>
+      </c>
+      <c r="G13">
+        <v>0.1012002349901709</v>
+      </c>
+      <c r="H13">
+        <v>0.04782081571562364</v>
+      </c>
+      <c r="I13">
+        <v>-0.09508428322229015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.0042515716376939</v>
+        <v>0.006481567355420784</v>
       </c>
       <c r="C14">
-        <v>0.02211098791296392</v>
+        <v>-0.04932686382083784</v>
       </c>
       <c r="D14">
-        <v>0.05886327484347988</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02035773960564139</v>
+      </c>
+      <c r="E14">
+        <v>-0.1039779468918233</v>
+      </c>
+      <c r="F14">
+        <v>0.01929269655222379</v>
+      </c>
+      <c r="G14">
+        <v>0.03411943532059974</v>
+      </c>
+      <c r="H14">
+        <v>0.07449039779247306</v>
+      </c>
+      <c r="I14">
+        <v>-0.1416194461325842</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.002164866082859964</v>
+        <v>-0.003798897531769515</v>
       </c>
       <c r="C15">
-        <v>0.02715824284000794</v>
+        <v>-0.04879318078220667</v>
       </c>
       <c r="D15">
-        <v>0.07693231494820342</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.03223337978309525</v>
+      </c>
+      <c r="E15">
+        <v>-0.07612641311751599</v>
+      </c>
+      <c r="F15">
+        <v>0.01720437408909193</v>
+      </c>
+      <c r="G15">
+        <v>-0.0092413767744449</v>
+      </c>
+      <c r="H15">
+        <v>0.009767487769607227</v>
+      </c>
+      <c r="I15">
+        <v>-0.05644355629407987</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.009063339299235884</v>
+        <v>0.01096343528176199</v>
       </c>
       <c r="C16">
-        <v>0.03896923332039787</v>
+        <v>-0.05634760906260403</v>
       </c>
       <c r="D16">
-        <v>0.0395506943053771</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.0185101202062908</v>
+      </c>
+      <c r="E16">
+        <v>-0.04014718203781225</v>
+      </c>
+      <c r="F16">
+        <v>-0.0007557035635599381</v>
+      </c>
+      <c r="G16">
+        <v>0.001015492911890992</v>
+      </c>
+      <c r="H16">
+        <v>0.03792969514928996</v>
+      </c>
+      <c r="I16">
+        <v>-0.03645800483207935</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.01046429359346137</v>
+        <v>0.004234185254641969</v>
       </c>
       <c r="C19">
-        <v>0.01542357077254553</v>
+        <v>-0.01221449008800543</v>
       </c>
       <c r="D19">
-        <v>0.0253288782866855</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.0004155141532929587</v>
+      </c>
+      <c r="E19">
+        <v>-0.0109633755464661</v>
+      </c>
+      <c r="F19">
+        <v>-0.007895284830850169</v>
+      </c>
+      <c r="G19">
+        <v>0.005404216941720496</v>
+      </c>
+      <c r="H19">
+        <v>-0.0215374770457169</v>
+      </c>
+      <c r="I19">
+        <v>-0.02655332774289823</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.00259837560068293</v>
+        <v>0.002723512478713415</v>
       </c>
       <c r="C20">
-        <v>0.04164027010036537</v>
+        <v>-0.06419623209231824</v>
       </c>
       <c r="D20">
-        <v>0.06446616233924593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03541114350008922</v>
+      </c>
+      <c r="E20">
+        <v>-0.06636431289889318</v>
+      </c>
+      <c r="F20">
+        <v>0.008517787202132277</v>
+      </c>
+      <c r="G20">
+        <v>-0.01739780271045134</v>
+      </c>
+      <c r="H20">
+        <v>0.0681410976216594</v>
+      </c>
+      <c r="I20">
+        <v>-0.06355677735831586</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.01816808742391326</v>
+        <v>0.0102974970597377</v>
       </c>
       <c r="C21">
-        <v>0.06107244065466297</v>
+        <v>-0.07086367735784976</v>
       </c>
       <c r="D21">
-        <v>0.088216044647041</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02637998522474575</v>
+      </c>
+      <c r="E21">
+        <v>-0.08248911699906548</v>
+      </c>
+      <c r="F21">
+        <v>0.06991578698674002</v>
+      </c>
+      <c r="G21">
+        <v>0.09846163478365849</v>
+      </c>
+      <c r="H21">
+        <v>0.01766747646449884</v>
+      </c>
+      <c r="I21">
+        <v>-0.1830271864760155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.00167051275398778</v>
+        <v>-0.01148868049673497</v>
       </c>
       <c r="C22">
-        <v>0.06432365520014377</v>
+        <v>-0.1022642462485128</v>
       </c>
       <c r="D22">
-        <v>0.2057217627322086</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1450897759606938</v>
+      </c>
+      <c r="E22">
+        <v>-0.1868884520986963</v>
+      </c>
+      <c r="F22">
+        <v>0.2909224307072183</v>
+      </c>
+      <c r="G22">
+        <v>-0.1287829113593746</v>
+      </c>
+      <c r="H22">
+        <v>-0.242522172965131</v>
+      </c>
+      <c r="I22">
+        <v>0.4175263822383056</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.001756756272380177</v>
+        <v>-0.008184258296100646</v>
       </c>
       <c r="C23">
-        <v>0.06567200439446622</v>
+        <v>-0.1052586788191353</v>
       </c>
       <c r="D23">
-        <v>0.2053705281277962</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1476908956624449</v>
+      </c>
+      <c r="E23">
+        <v>-0.1842038074254798</v>
+      </c>
+      <c r="F23">
+        <v>0.2859387888157082</v>
+      </c>
+      <c r="G23">
+        <v>-0.1223267078646707</v>
+      </c>
+      <c r="H23">
+        <v>-0.2315612413558923</v>
+      </c>
+      <c r="I23">
+        <v>0.3909767923355455</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.01209217777287704</v>
+        <v>0.01332770344040221</v>
       </c>
       <c r="C24">
-        <v>0.0638707413427707</v>
+        <v>-0.07433708564818524</v>
       </c>
       <c r="D24">
-        <v>0.0538356296116225</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.01054984435659369</v>
+      </c>
+      <c r="E24">
+        <v>-0.05404907584209951</v>
+      </c>
+      <c r="F24">
+        <v>-0.0006320044220631634</v>
+      </c>
+      <c r="G24">
+        <v>-0.005755170391461836</v>
+      </c>
+      <c r="H24">
+        <v>0.02916258820472781</v>
+      </c>
+      <c r="I24">
+        <v>-0.05676380141963285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.01652669310123497</v>
+        <v>0.01812119372089041</v>
       </c>
       <c r="C25">
-        <v>0.05430956676184818</v>
+        <v>-0.06737364716638333</v>
       </c>
       <c r="D25">
-        <v>0.0434590579888139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01382755657403788</v>
+      </c>
+      <c r="E25">
+        <v>-0.04067033886269122</v>
+      </c>
+      <c r="F25">
+        <v>0.003129025264019665</v>
+      </c>
+      <c r="G25">
+        <v>-0.01018818779677629</v>
+      </c>
+      <c r="H25">
+        <v>0.03416064005370605</v>
+      </c>
+      <c r="I25">
+        <v>-0.03364483515969881</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.006276492720957825</v>
+        <v>0.01723158435072652</v>
       </c>
       <c r="C26">
-        <v>0.03151070762495073</v>
+        <v>-0.05038280095030929</v>
       </c>
       <c r="D26">
-        <v>0.05284024512178653</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.006273411407112187</v>
+      </c>
+      <c r="E26">
+        <v>-0.08221225105723511</v>
+      </c>
+      <c r="F26">
+        <v>0.03254893730691547</v>
+      </c>
+      <c r="G26">
+        <v>0.00556813005542821</v>
+      </c>
+      <c r="H26">
+        <v>0.03667153726741541</v>
+      </c>
+      <c r="I26">
+        <v>-0.1239808039600787</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.3002711059737403</v>
+        <v>0.3109824138818199</v>
       </c>
       <c r="C28">
-        <v>-0.1398961433579379</v>
+        <v>0.1059357367237922</v>
       </c>
       <c r="D28">
-        <v>-0.04749478500613535</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01205449808800984</v>
+      </c>
+      <c r="E28">
+        <v>0.04341525214978842</v>
+      </c>
+      <c r="F28">
+        <v>0.06667575157777958</v>
+      </c>
+      <c r="G28">
+        <v>-0.03610676395118034</v>
+      </c>
+      <c r="H28">
+        <v>-0.02565452672628945</v>
+      </c>
+      <c r="I28">
+        <v>-0.06251650874475856</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.005258214598312745</v>
+        <v>0.005509717665453845</v>
       </c>
       <c r="C29">
-        <v>0.0296130612670877</v>
+        <v>-0.0585149995525216</v>
       </c>
       <c r="D29">
-        <v>0.06971125615696962</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03041923925126301</v>
+      </c>
+      <c r="E29">
+        <v>-0.1115049328220496</v>
+      </c>
+      <c r="F29">
+        <v>0.02400768270133338</v>
+      </c>
+      <c r="G29">
+        <v>0.05048204272690064</v>
+      </c>
+      <c r="H29">
+        <v>0.1052337048447128</v>
+      </c>
+      <c r="I29">
+        <v>-0.1791200077243716</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.02692328528704322</v>
+        <v>0.02097703780357772</v>
       </c>
       <c r="C30">
-        <v>0.0963757968263942</v>
+        <v>-0.1204104153579192</v>
       </c>
       <c r="D30">
-        <v>0.1382537606889967</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.04600866900483815</v>
+      </c>
+      <c r="E30">
+        <v>-0.1189485319031811</v>
+      </c>
+      <c r="F30">
+        <v>0.0549620178579261</v>
+      </c>
+      <c r="G30">
+        <v>-0.02087413299036153</v>
+      </c>
+      <c r="H30">
+        <v>0.003709873576107252</v>
+      </c>
+      <c r="I30">
+        <v>-0.02568429210657279</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.01491582339717601</v>
+        <v>0.01075302268215224</v>
       </c>
       <c r="C31">
-        <v>0.08937002024309237</v>
+        <v>-0.09827776271549402</v>
       </c>
       <c r="D31">
-        <v>0.03161639575173806</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003918275331108315</v>
+      </c>
+      <c r="E31">
+        <v>-0.02831711725406279</v>
+      </c>
+      <c r="F31">
+        <v>0.003170479568615812</v>
+      </c>
+      <c r="G31">
+        <v>0.001486306840686153</v>
+      </c>
+      <c r="H31">
+        <v>-0.0192782580990373</v>
+      </c>
+      <c r="I31">
+        <v>-0.0569629858432434</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.02265304810429616</v>
+        <v>0.01854630015247605</v>
       </c>
       <c r="C32">
-        <v>0.0531033404349329</v>
+        <v>-0.06152086315432964</v>
       </c>
       <c r="D32">
-        <v>0.09972022586906765</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03132965362397398</v>
+      </c>
+      <c r="E32">
+        <v>-0.06566783622553635</v>
+      </c>
+      <c r="F32">
+        <v>0.1132443672023249</v>
+      </c>
+      <c r="G32">
+        <v>0.03821482128670785</v>
+      </c>
+      <c r="H32">
+        <v>0.02108759271748089</v>
+      </c>
+      <c r="I32">
+        <v>-0.08187451013701694</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.00643777367624542</v>
+        <v>0.009461826479287515</v>
       </c>
       <c r="C33">
-        <v>0.06214086361091901</v>
+        <v>-0.08981035540201175</v>
       </c>
       <c r="D33">
-        <v>0.08386966701912761</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.0395072546984515</v>
+      </c>
+      <c r="E33">
+        <v>-0.08559209860751872</v>
+      </c>
+      <c r="F33">
+        <v>0.01485955822795141</v>
+      </c>
+      <c r="G33">
+        <v>0.0006339059707134681</v>
+      </c>
+      <c r="H33">
+        <v>0.03248617950202609</v>
+      </c>
+      <c r="I33">
+        <v>-0.0599819900866584</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.01103545371955946</v>
+        <v>0.01353615776684926</v>
       </c>
       <c r="C34">
-        <v>0.05380465026683869</v>
+        <v>-0.05772476194297433</v>
       </c>
       <c r="D34">
-        <v>0.05877486330855822</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.01124114193075202</v>
+      </c>
+      <c r="E34">
+        <v>-0.04407230332701687</v>
+      </c>
+      <c r="F34">
+        <v>-0.02301989684878213</v>
+      </c>
+      <c r="G34">
+        <v>0.006871482815081706</v>
+      </c>
+      <c r="H34">
+        <v>0.01023272616955898</v>
+      </c>
+      <c r="I34">
+        <v>-0.0238549881280743</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>-0.001831888115034708</v>
+        <v>0.005361039715729795</v>
       </c>
       <c r="C35">
-        <v>0.002159222804581945</v>
+        <v>-0.02438141081335869</v>
       </c>
       <c r="D35">
-        <v>0.008853476219167596</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01257829818379204</v>
+      </c>
+      <c r="E35">
+        <v>-0.04025362251377897</v>
+      </c>
+      <c r="F35">
+        <v>0.01816538580151707</v>
+      </c>
+      <c r="G35">
+        <v>0.01051229415625578</v>
+      </c>
+      <c r="H35">
+        <v>0.06049286432082924</v>
+      </c>
+      <c r="I35">
+        <v>-0.0991548788774177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.005704083046426991</v>
+        <v>0.01002777500849103</v>
       </c>
       <c r="C36">
-        <v>0.0297723914022761</v>
+        <v>-0.0415403783279463</v>
       </c>
       <c r="D36">
-        <v>0.04281659484800548</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.003941983467746172</v>
+      </c>
+      <c r="E36">
+        <v>-0.06519097385915708</v>
+      </c>
+      <c r="F36">
+        <v>0.03429320816036546</v>
+      </c>
+      <c r="G36">
+        <v>0.002724367718526797</v>
+      </c>
+      <c r="H36">
+        <v>0.03324845751215697</v>
+      </c>
+      <c r="I36">
+        <v>-0.07131827832953601</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.00427552033923811</v>
+        <v>0.00651481654958959</v>
       </c>
       <c r="C38">
-        <v>0.01654670788373441</v>
+        <v>-0.04251442214342676</v>
       </c>
       <c r="D38">
-        <v>0.06556226899260469</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.03114661427194427</v>
+      </c>
+      <c r="E38">
+        <v>-0.07870577091353817</v>
+      </c>
+      <c r="F38">
+        <v>0.01254184381943992</v>
+      </c>
+      <c r="G38">
+        <v>-0.04965546146757859</v>
+      </c>
+      <c r="H38">
+        <v>-0.0008815984222380808</v>
+      </c>
+      <c r="I38">
+        <v>-0.07578000287798733</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.01484466523308812</v>
+        <v>0.01202841883521943</v>
       </c>
       <c r="C39">
-        <v>0.07759243236846726</v>
+        <v>-0.1056921332199799</v>
       </c>
       <c r="D39">
-        <v>0.1090234268492496</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.0248917648815715</v>
+      </c>
+      <c r="E39">
+        <v>-0.09729868068578379</v>
+      </c>
+      <c r="F39">
+        <v>-0.006815643231929725</v>
+      </c>
+      <c r="G39">
+        <v>0.008200376169836907</v>
+      </c>
+      <c r="H39">
+        <v>0.03630645337274822</v>
+      </c>
+      <c r="I39">
+        <v>-0.0531854904906974</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.005970074929454465</v>
+        <v>0.01078910323698243</v>
       </c>
       <c r="C40">
-        <v>0.01961331839934697</v>
+        <v>-0.04818958579049484</v>
       </c>
       <c r="D40">
-        <v>0.09238919083526304</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.05391343287126406</v>
+      </c>
+      <c r="E40">
+        <v>-0.1219273102618929</v>
+      </c>
+      <c r="F40">
+        <v>-0.005890675961900143</v>
+      </c>
+      <c r="G40">
+        <v>0.0236795338025973</v>
+      </c>
+      <c r="H40">
+        <v>0.0424782878974658</v>
+      </c>
+      <c r="I40">
+        <v>-0.009923988126237755</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.00905708408377516</v>
+        <v>0.01783245370428137</v>
       </c>
       <c r="C41">
-        <v>0.02418594672047488</v>
+        <v>-0.0436640224982469</v>
       </c>
       <c r="D41">
-        <v>0.01870585676264645</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.0119119624096138</v>
+      </c>
+      <c r="E41">
+        <v>-0.02077698913056782</v>
+      </c>
+      <c r="F41">
+        <v>-0.01439010590687273</v>
+      </c>
+      <c r="G41">
+        <v>-0.006814271638173652</v>
+      </c>
+      <c r="H41">
+        <v>0.005144228203644016</v>
+      </c>
+      <c r="I41">
+        <v>-0.04047517942371114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.003886708304165675</v>
+        <v>0.008376316107757947</v>
       </c>
       <c r="C43">
-        <v>0.01856780220599797</v>
+        <v>-0.03545213231903409</v>
       </c>
       <c r="D43">
-        <v>0.03716221898821222</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01181618790833778</v>
+      </c>
+      <c r="E43">
+        <v>-0.04424717799105322</v>
+      </c>
+      <c r="F43">
+        <v>-0.003450143433097155</v>
+      </c>
+      <c r="G43">
+        <v>-0.0150524112837121</v>
+      </c>
+      <c r="H43">
+        <v>0.02091079981470217</v>
+      </c>
+      <c r="I43">
+        <v>-0.05365993077246138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.01922555431782557</v>
+        <v>0.008259405386795472</v>
       </c>
       <c r="C44">
-        <v>0.05101123192710857</v>
+        <v>-0.07321815124969783</v>
       </c>
       <c r="D44">
-        <v>0.08377787803312459</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.02498494442169453</v>
+      </c>
+      <c r="E44">
+        <v>-0.1022334346140041</v>
+      </c>
+      <c r="F44">
+        <v>0.04696854849572549</v>
+      </c>
+      <c r="G44">
+        <v>-0.01242362785248607</v>
+      </c>
+      <c r="H44">
+        <v>0.0005352812652686315</v>
+      </c>
+      <c r="I44">
+        <v>-0.03512059783138741</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1996,199 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.001851681463703512</v>
+        <v>-0.0002912579772761861</v>
       </c>
       <c r="C46">
-        <v>0.03797609280590156</v>
+        <v>-0.05350614966644644</v>
       </c>
       <c r="D46">
-        <v>0.06832265227861234</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01385348175822187</v>
+      </c>
+      <c r="E46">
+        <v>-0.08498881491113344</v>
+      </c>
+      <c r="F46">
+        <v>0.01504873089849385</v>
+      </c>
+      <c r="G46">
+        <v>0.00603971498753567</v>
+      </c>
+      <c r="H46">
+        <v>0.06434633112108135</v>
+      </c>
+      <c r="I46">
+        <v>-0.1115804094663892</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.04453843380797565</v>
+        <v>0.02903056091650832</v>
       </c>
       <c r="C47">
-        <v>0.1163675263725212</v>
+        <v>-0.114654310410972</v>
       </c>
       <c r="D47">
-        <v>0.03722680676143732</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01029142609951385</v>
+      </c>
+      <c r="E47">
+        <v>-0.01478225402559025</v>
+      </c>
+      <c r="F47">
+        <v>-0.003498831492875569</v>
+      </c>
+      <c r="G47">
+        <v>-0.0105269480544289</v>
+      </c>
+      <c r="H47">
+        <v>0.0009957143655352834</v>
+      </c>
+      <c r="I47">
+        <v>-0.0845822559117444</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.008288323181577387</v>
+        <v>0.01451702068229749</v>
       </c>
       <c r="C48">
-        <v>0.0325168601655851</v>
+        <v>-0.04745132695269774</v>
       </c>
       <c r="D48">
-        <v>0.04283019484357306</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.004179171016736359</v>
+      </c>
+      <c r="E48">
+        <v>-0.07406875117372036</v>
+      </c>
+      <c r="F48">
+        <v>0.04488313373808431</v>
+      </c>
+      <c r="G48">
+        <v>-0.002665152280534372</v>
+      </c>
+      <c r="H48">
+        <v>0.04598561858938507</v>
+      </c>
+      <c r="I48">
+        <v>-0.1181893196079601</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.003209215899999761</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.006708396076348793</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.007125869174878307</v>
+      </c>
+      <c r="E49">
+        <v>-0.005583398734692045</v>
+      </c>
+      <c r="F49">
+        <v>-0.01318874165183733</v>
+      </c>
+      <c r="G49">
+        <v>0.008263012886929808</v>
+      </c>
+      <c r="H49">
+        <v>0.01455124121228112</v>
+      </c>
+      <c r="I49">
+        <v>0.00625427425807742</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.01364043185934285</v>
+        <v>0.01194386866913506</v>
       </c>
       <c r="C50">
-        <v>0.05498373268462139</v>
+        <v>-0.07232422103011225</v>
       </c>
       <c r="D50">
-        <v>0.04337349887879476</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.01549548741966039</v>
+      </c>
+      <c r="E50">
+        <v>-0.03407857740365182</v>
+      </c>
+      <c r="F50">
+        <v>0.01349043570012268</v>
+      </c>
+      <c r="G50">
+        <v>-0.009797766543301282</v>
+      </c>
+      <c r="H50">
+        <v>-0.003048516693957285</v>
+      </c>
+      <c r="I50">
+        <v>-0.05759339091428425</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.004932380859012757</v>
+        <v>-0.004797376310531096</v>
       </c>
       <c r="C51">
-        <v>0.01878987280659861</v>
+        <v>-0.02979803601476612</v>
       </c>
       <c r="D51">
-        <v>0.06500342781486107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0140146293769431</v>
+      </c>
+      <c r="E51">
+        <v>-0.05728253120209161</v>
+      </c>
+      <c r="F51">
+        <v>0.04847847240727512</v>
+      </c>
+      <c r="G51">
+        <v>0.0136030357530837</v>
+      </c>
+      <c r="H51">
+        <v>0.01262543607159232</v>
+      </c>
+      <c r="I51">
+        <v>-0.1045383494184818</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.08779424718165962</v>
+        <v>0.06415519703526257</v>
       </c>
       <c r="C53">
-        <v>0.1550658643498889</v>
+        <v>-0.1623456266649972</v>
       </c>
       <c r="D53">
-        <v>0.0002993232877106768</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.04181623446410105</v>
+      </c>
+      <c r="E53">
+        <v>0.04616931280887206</v>
+      </c>
+      <c r="F53">
+        <v>-0.02629951083960757</v>
+      </c>
+      <c r="G53">
+        <v>-0.01337300531179342</v>
+      </c>
+      <c r="H53">
+        <v>-0.04030085207186861</v>
+      </c>
+      <c r="I53">
+        <v>-0.02169100782311049</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.007543263967946868</v>
+        <v>0.01333331713217472</v>
       </c>
       <c r="C54">
-        <v>0.03011169620334531</v>
+        <v>-0.05191609588828448</v>
       </c>
       <c r="D54">
-        <v>0.07755797999417316</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.04198707104940161</v>
+      </c>
+      <c r="E54">
+        <v>-0.05818283064178764</v>
+      </c>
+      <c r="F54">
+        <v>0.01099249697829954</v>
+      </c>
+      <c r="G54">
+        <v>-0.006884402180770298</v>
+      </c>
+      <c r="H54">
+        <v>0.01638689953879012</v>
+      </c>
+      <c r="I54">
+        <v>-0.09170831430736828</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.06095936193481891</v>
+        <v>0.03976052881485604</v>
       </c>
       <c r="C55">
-        <v>0.1119490740954879</v>
+        <v>-0.1143518201417546</v>
       </c>
       <c r="D55">
-        <v>-0.003517975572216535</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04961668535273364</v>
+      </c>
+      <c r="E55">
+        <v>0.02287807165468306</v>
+      </c>
+      <c r="F55">
+        <v>-0.03186127375736958</v>
+      </c>
+      <c r="G55">
+        <v>-0.001301055971792377</v>
+      </c>
+      <c r="H55">
+        <v>-0.0422957515147853</v>
+      </c>
+      <c r="I55">
+        <v>-0.02713084720072581</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.09553886145835516</v>
+        <v>0.06155105246777175</v>
       </c>
       <c r="C56">
-        <v>0.1682322532313952</v>
+        <v>-0.1825944106138131</v>
       </c>
       <c r="D56">
-        <v>0.02380759170503295</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05173928353177649</v>
+      </c>
+      <c r="E56">
+        <v>0.0370231450017364</v>
+      </c>
+      <c r="F56">
+        <v>-0.06334795797849421</v>
+      </c>
+      <c r="G56">
+        <v>-0.01214469080182191</v>
+      </c>
+      <c r="H56">
+        <v>-0.1214795293269849</v>
+      </c>
+      <c r="I56">
+        <v>-0.02665465289638243</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2344,373 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.02029325931164883</v>
+        <v>0.01079198169359504</v>
       </c>
       <c r="C58">
-        <v>0.07076276829057367</v>
+        <v>-0.1160357081117481</v>
       </c>
       <c r="D58">
-        <v>0.2176277923706636</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.1280081986817773</v>
+      </c>
+      <c r="E58">
+        <v>-0.1658784863848437</v>
+      </c>
+      <c r="F58">
+        <v>0.2717029445092494</v>
+      </c>
+      <c r="G58">
+        <v>-0.06499695716619268</v>
+      </c>
+      <c r="H58">
+        <v>-0.1248897826528928</v>
+      </c>
+      <c r="I58">
+        <v>0.04056599111596059</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.2381357989917679</v>
+        <v>0.2684941307020622</v>
       </c>
       <c r="C59">
-        <v>-0.08531819811626008</v>
+        <v>0.05556386931288052</v>
       </c>
       <c r="D59">
-        <v>0.04824998475408843</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.0204697816715518</v>
+      </c>
+      <c r="E59">
+        <v>-0.02837745323539979</v>
+      </c>
+      <c r="F59">
+        <v>0.03271538358485416</v>
+      </c>
+      <c r="G59">
+        <v>0.01925572666109309</v>
+      </c>
+      <c r="H59">
+        <v>0.002862627334476755</v>
+      </c>
+      <c r="I59">
+        <v>0.03267200591619532</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1513409490218894</v>
+        <v>0.1535789464880646</v>
       </c>
       <c r="C60">
-        <v>0.1221305151410897</v>
+        <v>-0.1547168777766204</v>
       </c>
       <c r="D60">
-        <v>0.086535592528725</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.02339181663679587</v>
+      </c>
+      <c r="E60">
+        <v>-0.08452263990399615</v>
+      </c>
+      <c r="F60">
+        <v>-0.227966517669702</v>
+      </c>
+      <c r="G60">
+        <v>0.1056862431842077</v>
+      </c>
+      <c r="H60">
+        <v>0.1593583390219452</v>
+      </c>
+      <c r="I60">
+        <v>0.2901343885082022</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.02043751758307678</v>
+        <v>0.01842993964986942</v>
       </c>
       <c r="C61">
-        <v>0.06483367697569155</v>
+        <v>-0.09098732620812403</v>
       </c>
       <c r="D61">
-        <v>0.07407913566189946</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.01548236984714013</v>
+      </c>
+      <c r="E61">
+        <v>-0.0762063152681319</v>
+      </c>
+      <c r="F61">
+        <v>-0.02041374780143929</v>
+      </c>
+      <c r="G61">
+        <v>-0.004540025097679744</v>
+      </c>
+      <c r="H61">
+        <v>0.029425083199237</v>
+      </c>
+      <c r="I61">
+        <v>-0.06409886519160747</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0003137311324287443</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.001065443774797984</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.0005732322401872403</v>
+      </c>
+      <c r="E62">
+        <v>0.000882106355266526</v>
+      </c>
+      <c r="F62">
+        <v>0.002988239439150479</v>
+      </c>
+      <c r="G62">
+        <v>-8.87476852957338e-05</v>
+      </c>
+      <c r="H62">
+        <v>-0.0001053767159087499</v>
+      </c>
+      <c r="I62">
+        <v>-0.004161212199703012</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.002282353773997668</v>
+        <v>0.01782783391437904</v>
       </c>
       <c r="C63">
-        <v>0.04736191770520311</v>
+        <v>-0.06388045907045931</v>
       </c>
       <c r="D63">
-        <v>0.06216594151197424</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.005239584636338067</v>
+      </c>
+      <c r="E63">
+        <v>-0.07541105831314095</v>
+      </c>
+      <c r="F63">
+        <v>0.003413172422707867</v>
+      </c>
+      <c r="G63">
+        <v>0.003520144731657102</v>
+      </c>
+      <c r="H63">
+        <v>0.03361953212937505</v>
+      </c>
+      <c r="I63">
+        <v>-0.0774285266782456</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.02966819092378249</v>
+        <v>0.01713367182817629</v>
       </c>
       <c r="C64">
-        <v>0.1097915837505248</v>
+        <v>-0.107387932963342</v>
       </c>
       <c r="D64">
-        <v>0.022144548012112</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.009521554506739255</v>
+      </c>
+      <c r="E64">
+        <v>-0.02627152011684156</v>
+      </c>
+      <c r="F64">
+        <v>0.01714059903378614</v>
+      </c>
+      <c r="G64">
+        <v>-0.01550834065306607</v>
+      </c>
+      <c r="H64">
+        <v>0.06128068883561692</v>
+      </c>
+      <c r="I64">
+        <v>0.0170408631921137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.01859455448548869</v>
+        <v>0.02356052416189105</v>
       </c>
       <c r="C65">
-        <v>0.03960984083617524</v>
+        <v>-0.06563896017899404</v>
       </c>
       <c r="D65">
-        <v>0.0873765180230478</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.05388277049439856</v>
+      </c>
+      <c r="E65">
+        <v>-0.09779633076064514</v>
+      </c>
+      <c r="F65">
+        <v>-0.001135593192476359</v>
+      </c>
+      <c r="G65">
+        <v>-0.002087905013185367</v>
+      </c>
+      <c r="H65">
+        <v>0.08498149350807525</v>
+      </c>
+      <c r="I65">
+        <v>0.0253664515235937</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.02077579917362831</v>
+        <v>0.01388283281271811</v>
       </c>
       <c r="C66">
-        <v>0.09564812300821592</v>
+        <v>-0.130653046351434</v>
       </c>
       <c r="D66">
-        <v>0.142757340797923</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.05671383212708648</v>
+      </c>
+      <c r="E66">
+        <v>-0.1069519183522256</v>
+      </c>
+      <c r="F66">
+        <v>0.007004825973291811</v>
+      </c>
+      <c r="G66">
+        <v>-0.002492818046781553</v>
+      </c>
+      <c r="H66">
+        <v>0.01047006242100395</v>
+      </c>
+      <c r="I66">
+        <v>-0.05392753663607169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.01727267992699586</v>
+        <v>0.01757582945429503</v>
       </c>
       <c r="C67">
-        <v>0.0184063810968032</v>
+        <v>-0.04134208817241505</v>
       </c>
       <c r="D67">
-        <v>0.03282458290428138</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.007857363689965308</v>
+      </c>
+      <c r="E67">
+        <v>-0.06281687512328236</v>
+      </c>
+      <c r="F67">
+        <v>-0.0289323716939681</v>
+      </c>
+      <c r="G67">
+        <v>-0.04199168177073377</v>
+      </c>
+      <c r="H67">
+        <v>0.0124247995685922</v>
+      </c>
+      <c r="I67">
+        <v>-0.05725922422460289</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2342177670038069</v>
+        <v>0.2779618455787428</v>
       </c>
       <c r="C68">
-        <v>-0.09998526953468183</v>
+        <v>0.06901228531773319</v>
       </c>
       <c r="D68">
-        <v>0.01597090937237819</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.03857652751737023</v>
+      </c>
+      <c r="E68">
+        <v>-0.01578338442037384</v>
+      </c>
+      <c r="F68">
+        <v>0.05607588695823289</v>
+      </c>
+      <c r="G68">
+        <v>-0.01301611498221278</v>
+      </c>
+      <c r="H68">
+        <v>-0.03384316167802406</v>
+      </c>
+      <c r="I68">
+        <v>0.02992786764114082</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.04002803386209133</v>
+        <v>0.01684405149330861</v>
       </c>
       <c r="C69">
-        <v>0.1221249828474007</v>
+        <v>-0.1050557455507942</v>
       </c>
       <c r="D69">
-        <v>0.04893935644884957</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.02405128041050349</v>
+      </c>
+      <c r="E69">
+        <v>-0.02470892769044956</v>
+      </c>
+      <c r="F69">
+        <v>-0.02119278045227199</v>
+      </c>
+      <c r="G69">
+        <v>-0.008000756060261179</v>
+      </c>
+      <c r="H69">
+        <v>-0.009010509974281782</v>
+      </c>
+      <c r="I69">
+        <v>-0.04857916689216125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2487409113748361</v>
+        <v>0.2668035122824503</v>
       </c>
       <c r="C71">
-        <v>-0.1191084121903708</v>
+        <v>0.08393177769768548</v>
       </c>
       <c r="D71">
-        <v>0.01774369963216469</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01767219535488148</v>
+      </c>
+      <c r="E71">
+        <v>-0.0202851663476191</v>
+      </c>
+      <c r="F71">
+        <v>0.02834149251139059</v>
+      </c>
+      <c r="G71">
+        <v>-0.02885341031897323</v>
+      </c>
+      <c r="H71">
+        <v>-0.00283953345755497</v>
+      </c>
+      <c r="I71">
+        <v>-0.06352325707719092</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.0820832579187771</v>
+        <v>0.06425152519446917</v>
       </c>
       <c r="C72">
-        <v>0.1181734966445536</v>
+        <v>-0.1363426506497197</v>
       </c>
       <c r="D72">
-        <v>0.09820285174326514</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01475129174464316</v>
+      </c>
+      <c r="E72">
+        <v>-0.05715191522481291</v>
+      </c>
+      <c r="F72">
+        <v>-0.0392173139056178</v>
+      </c>
+      <c r="G72">
+        <v>0.009840794529571135</v>
+      </c>
+      <c r="H72">
+        <v>0.01303873340592088</v>
+      </c>
+      <c r="I72">
+        <v>0.03388702944777656</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.118064383912843</v>
+        <v>0.1451522484446728</v>
       </c>
       <c r="C73">
-        <v>0.0936420372466958</v>
+        <v>-0.1577259987189783</v>
       </c>
       <c r="D73">
-        <v>0.1159136475981211</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.0401259373103189</v>
+      </c>
+      <c r="E73">
+        <v>-0.1654275706594672</v>
+      </c>
+      <c r="F73">
+        <v>-0.3218231408345351</v>
+      </c>
+      <c r="G73">
+        <v>0.1191036017733887</v>
+      </c>
+      <c r="H73">
+        <v>0.299019897095551</v>
+      </c>
+      <c r="I73">
+        <v>0.2807343325154334</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.07496136649351647</v>
+        <v>0.05083175570705057</v>
       </c>
       <c r="C74">
-        <v>0.1360453426429312</v>
+        <v>-0.1356206284039523</v>
       </c>
       <c r="D74">
-        <v>-0.04695264820582381</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.06424369800190689</v>
+      </c>
+      <c r="E74">
+        <v>0.04405777256354334</v>
+      </c>
+      <c r="F74">
+        <v>-0.01888975606739201</v>
+      </c>
+      <c r="G74">
+        <v>-0.01473059609044216</v>
+      </c>
+      <c r="H74">
+        <v>-0.03199988242477018</v>
+      </c>
+      <c r="I74">
+        <v>-0.01892350674183456</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.1743160956252251</v>
+        <v>0.09899964449159256</v>
       </c>
       <c r="C75">
-        <v>0.2264109419292679</v>
+        <v>-0.2344832341408458</v>
       </c>
       <c r="D75">
-        <v>-0.01972106127114144</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1009078639486146</v>
+      </c>
+      <c r="E75">
+        <v>0.1079779891628431</v>
+      </c>
+      <c r="F75">
+        <v>-0.1553414769675033</v>
+      </c>
+      <c r="G75">
+        <v>-0.1157190633371189</v>
+      </c>
+      <c r="H75">
+        <v>-0.226267454849275</v>
+      </c>
+      <c r="I75">
+        <v>-0.04447952020560277</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.09503187521420749</v>
+        <v>0.05804926161472333</v>
       </c>
       <c r="C76">
-        <v>0.1628744500933133</v>
+        <v>-0.1721938261134899</v>
       </c>
       <c r="D76">
-        <v>0.01138913174414482</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.06392437004608677</v>
+      </c>
+      <c r="E76">
+        <v>0.02836693926640903</v>
+      </c>
+      <c r="F76">
+        <v>-0.09387258317138862</v>
+      </c>
+      <c r="G76">
+        <v>-0.007965217916878131</v>
+      </c>
+      <c r="H76">
+        <v>-0.08312197354591687</v>
+      </c>
+      <c r="I76">
+        <v>-0.05116060992459089</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.03935455783177817</v>
+        <v>0.02776799091262471</v>
       </c>
       <c r="C77">
-        <v>0.08711585337887351</v>
+        <v>-0.154370116460581</v>
       </c>
       <c r="D77">
-        <v>0.3019753063368052</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.838613273427699</v>
+      </c>
+      <c r="E77">
+        <v>0.4933153227758974</v>
+      </c>
+      <c r="F77">
+        <v>-0.07328913674201172</v>
+      </c>
+      <c r="G77">
+        <v>-0.024974350674294</v>
+      </c>
+      <c r="H77">
+        <v>0.0568720899940923</v>
+      </c>
+      <c r="I77">
+        <v>-0.06241709005264731</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.03241183375896955</v>
+        <v>0.02824811077648261</v>
       </c>
       <c r="C78">
-        <v>0.08891086175826494</v>
+        <v>-0.1033616250177062</v>
       </c>
       <c r="D78">
-        <v>0.1245110444763501</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.002170667357446467</v>
+      </c>
+      <c r="E78">
+        <v>-0.09815486015139725</v>
+      </c>
+      <c r="F78">
+        <v>0.05752798043249485</v>
+      </c>
+      <c r="G78">
+        <v>0.0255753028986533</v>
+      </c>
+      <c r="H78">
+        <v>-0.07739003096467828</v>
+      </c>
+      <c r="I78">
+        <v>-0.1287866509428781</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.09509160225191557</v>
+        <v>0.05829030127578641</v>
       </c>
       <c r="C79">
-        <v>0.4070821879261357</v>
+        <v>-0.2977878163229814</v>
       </c>
       <c r="D79">
-        <v>-0.6227866190647831</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.2967885186819826</v>
+      </c>
+      <c r="E79">
+        <v>0.4577330803379786</v>
+      </c>
+      <c r="F79">
+        <v>0.5434390968339871</v>
+      </c>
+      <c r="G79">
+        <v>0.05103001406859019</v>
+      </c>
+      <c r="H79">
+        <v>0.4696973688775188</v>
+      </c>
+      <c r="I79">
+        <v>0.1459141171276985</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.0003423501002946701</v>
+        <v>0.009310788984204763</v>
       </c>
       <c r="C80">
-        <v>0.06097186176777952</v>
+        <v>-0.05862805007566917</v>
       </c>
       <c r="D80">
-        <v>0.04407738569700133</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.004789836139758841</v>
+      </c>
+      <c r="E80">
+        <v>-0.06974171557672749</v>
+      </c>
+      <c r="F80">
+        <v>-0.02649614320840328</v>
+      </c>
+      <c r="G80">
+        <v>0.06502869478314721</v>
+      </c>
+      <c r="H80">
+        <v>0.01960338052788735</v>
+      </c>
+      <c r="I80">
+        <v>0.03375079428055525</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.07988576174721378</v>
+        <v>0.03692061764359067</v>
       </c>
       <c r="C81">
-        <v>0.1508439821677598</v>
+        <v>-0.1511530595867817</v>
       </c>
       <c r="D81">
-        <v>-0.052186067541714</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07051733387987087</v>
+      </c>
+      <c r="E81">
+        <v>0.05881184355170504</v>
+      </c>
+      <c r="F81">
+        <v>-0.01585987154770219</v>
+      </c>
+      <c r="G81">
+        <v>-0.01947944006884486</v>
+      </c>
+      <c r="H81">
+        <v>-0.07072353197582293</v>
+      </c>
+      <c r="I81">
+        <v>-0.06235542062363757</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.1420563830613785</v>
+        <v>0.07854556739125058</v>
       </c>
       <c r="C82">
-        <v>0.2144325523779759</v>
+        <v>-0.1988977079599967</v>
       </c>
       <c r="D82">
-        <v>-0.02588477833159427</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.09995600770423731</v>
+      </c>
+      <c r="E82">
+        <v>0.0693529533089334</v>
+      </c>
+      <c r="F82">
+        <v>-0.08749298554336855</v>
+      </c>
+      <c r="G82">
+        <v>-0.006339712790168052</v>
+      </c>
+      <c r="H82">
+        <v>-0.1253466374049387</v>
+      </c>
+      <c r="I82">
+        <v>-0.08315216361819978</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.004214953338772228</v>
+        <v>0.003996475896661283</v>
       </c>
       <c r="C83">
-        <v>0.05739737937628559</v>
+        <v>-0.02024608761823108</v>
       </c>
       <c r="D83">
-        <v>0.04972380036369151</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03950468924538991</v>
+      </c>
+      <c r="E83">
+        <v>0.03728501503855434</v>
+      </c>
+      <c r="F83">
+        <v>0.1038154109084003</v>
+      </c>
+      <c r="G83">
+        <v>0.9122929701908848</v>
+      </c>
+      <c r="H83">
+        <v>-0.2642821944677477</v>
+      </c>
+      <c r="I83">
+        <v>0.03368652564423776</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.001943144382793813</v>
+        <v>-0.002716904929820692</v>
       </c>
       <c r="C84">
-        <v>0.01414731636975477</v>
+        <v>-0.02826097161296285</v>
       </c>
       <c r="D84">
-        <v>0.03986381084077494</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.01200795681902449</v>
+      </c>
+      <c r="E84">
+        <v>-0.05392363802870509</v>
+      </c>
+      <c r="F84">
+        <v>0.06318899069202513</v>
+      </c>
+      <c r="G84">
+        <v>-0.05537394964285475</v>
+      </c>
+      <c r="H84">
+        <v>-0.03146302313032991</v>
+      </c>
+      <c r="I84">
+        <v>-0.07268386893599726</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.08966191014045424</v>
+        <v>0.05115395073453718</v>
       </c>
       <c r="C85">
-        <v>0.1844123134706855</v>
+        <v>-0.174303782074077</v>
       </c>
       <c r="D85">
-        <v>-0.07819373394770794</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1192296785082348</v>
+      </c>
+      <c r="E85">
+        <v>0.09085050506756986</v>
+      </c>
+      <c r="F85">
+        <v>-0.03165521880401411</v>
+      </c>
+      <c r="G85">
+        <v>-0.01610107758288007</v>
+      </c>
+      <c r="H85">
+        <v>-0.07691588813804426</v>
+      </c>
+      <c r="I85">
+        <v>-0.0268499886842134</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.02606466212666927</v>
+        <v>0.01641900598177587</v>
       </c>
       <c r="C86">
-        <v>0.03348595427812525</v>
+        <v>-0.06118948127009502</v>
       </c>
       <c r="D86">
-        <v>0.09570837035607728</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.04770011808819678</v>
+      </c>
+      <c r="E86">
+        <v>-0.0417683283444889</v>
+      </c>
+      <c r="F86">
+        <v>0.07494926128897739</v>
+      </c>
+      <c r="G86">
+        <v>-0.03893741631473893</v>
+      </c>
+      <c r="H86">
+        <v>-0.02151522306328223</v>
+      </c>
+      <c r="I86">
+        <v>-0.06860067412042795</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02636532452338619</v>
+        <v>0.01604192404644366</v>
       </c>
       <c r="C87">
-        <v>0.07112677895979144</v>
+        <v>-0.09372445604038608</v>
       </c>
       <c r="D87">
-        <v>0.1406193833633823</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07194019318219354</v>
+      </c>
+      <c r="E87">
+        <v>-0.09710528975554536</v>
+      </c>
+      <c r="F87">
+        <v>0.0763119524557811</v>
+      </c>
+      <c r="G87">
+        <v>-0.01642796534604551</v>
+      </c>
+      <c r="H87">
+        <v>-0.04366589491872916</v>
+      </c>
+      <c r="I87">
+        <v>-0.0431513343801175</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.04058766740824761</v>
+        <v>0.0386169594802034</v>
       </c>
       <c r="C88">
-        <v>0.07475514882248784</v>
+        <v>-0.08373552199526367</v>
       </c>
       <c r="D88">
-        <v>-0.0008691378792496786</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.009998332937514374</v>
+      </c>
+      <c r="E88">
+        <v>-0.0164330611977055</v>
+      </c>
+      <c r="F88">
+        <v>-0.02700776224374073</v>
+      </c>
+      <c r="G88">
+        <v>-0.004660346682385217</v>
+      </c>
+      <c r="H88">
+        <v>0.01407853900537025</v>
+      </c>
+      <c r="I88">
+        <v>-0.01762724895143716</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.4073149828111771</v>
+        <v>0.4045406612930511</v>
       </c>
       <c r="C89">
-        <v>-0.2200973884177975</v>
+        <v>0.1531282906437217</v>
       </c>
       <c r="D89">
-        <v>-0.02409858704305387</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02065454110095432</v>
+      </c>
+      <c r="E89">
+        <v>-0.01023816199921207</v>
+      </c>
+      <c r="F89">
+        <v>0.1009267509119747</v>
+      </c>
+      <c r="G89">
+        <v>0.07787357665744502</v>
+      </c>
+      <c r="H89">
+        <v>-0.07294851001920744</v>
+      </c>
+      <c r="I89">
+        <v>-0.07344028567945027</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.2989930844209802</v>
+        <v>0.3182273231824335</v>
       </c>
       <c r="C90">
-        <v>-0.1555506879731989</v>
+        <v>0.101258855018123</v>
       </c>
       <c r="D90">
-        <v>0.06397969031533976</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.03411930428909964</v>
+      </c>
+      <c r="E90">
+        <v>-0.04375831654344051</v>
+      </c>
+      <c r="F90">
+        <v>0.0202586365100199</v>
+      </c>
+      <c r="G90">
+        <v>-0.01289404756472629</v>
+      </c>
+      <c r="H90">
+        <v>-0.02906142396724035</v>
+      </c>
+      <c r="I90">
+        <v>0.008112928027353727</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1059109481285625</v>
+        <v>0.06830067744092203</v>
       </c>
       <c r="C91">
-        <v>0.2096339961027421</v>
+        <v>-0.1822039145440409</v>
       </c>
       <c r="D91">
-        <v>-0.08284739105438618</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08366819531948447</v>
+      </c>
+      <c r="E91">
+        <v>0.1149522607056406</v>
+      </c>
+      <c r="F91">
+        <v>-0.01095845004257456</v>
+      </c>
+      <c r="G91">
+        <v>0.02518945131936441</v>
+      </c>
+      <c r="H91">
+        <v>-0.05015037499193341</v>
+      </c>
+      <c r="I91">
+        <v>-0.01155979830074119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.3174510751751983</v>
+        <v>0.3429175025494961</v>
       </c>
       <c r="C92">
-        <v>-0.1729180405396636</v>
+        <v>0.1322067814734796</v>
       </c>
       <c r="D92">
-        <v>-0.02353418002063799</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.02948205568287333</v>
+      </c>
+      <c r="E92">
+        <v>0.01883969310992209</v>
+      </c>
+      <c r="F92">
+        <v>0.0743826537668737</v>
+      </c>
+      <c r="G92">
+        <v>-0.09382626724583036</v>
+      </c>
+      <c r="H92">
+        <v>0.03575535833337676</v>
+      </c>
+      <c r="I92">
+        <v>-0.01682880452332908</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.3124215666969914</v>
+        <v>0.3218914186329595</v>
       </c>
       <c r="C93">
-        <v>-0.1614735949410016</v>
+        <v>0.1225563474700141</v>
       </c>
       <c r="D93">
-        <v>-0.04699593824273406</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.02312828778678685</v>
+      </c>
+      <c r="E93">
+        <v>0.01816637267998479</v>
+      </c>
+      <c r="F93">
+        <v>0.03724456120858211</v>
+      </c>
+      <c r="G93">
+        <v>-0.01351938581438027</v>
+      </c>
+      <c r="H93">
+        <v>0.00271085314269057</v>
+      </c>
+      <c r="I93">
+        <v>-0.03505425372252816</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.180165343094214</v>
+        <v>0.1162563770872108</v>
       </c>
       <c r="C94">
-        <v>0.2531148266051218</v>
+        <v>-0.2525478093083904</v>
       </c>
       <c r="D94">
-        <v>-0.07796157299274609</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.1571786290725394</v>
+      </c>
+      <c r="E94">
+        <v>0.2051451859311607</v>
+      </c>
+      <c r="F94">
+        <v>-0.1866102912683065</v>
+      </c>
+      <c r="G94">
+        <v>-0.08568844059204497</v>
+      </c>
+      <c r="H94">
+        <v>-0.4262127937433522</v>
+      </c>
+      <c r="I94">
+        <v>0.04034938924631364</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.04036087300779032</v>
+        <v>0.0386437481289631</v>
       </c>
       <c r="C95">
-        <v>0.04256878452613669</v>
+        <v>-0.09144771273720376</v>
       </c>
       <c r="D95">
-        <v>0.06060502572163717</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.04580881743240513</v>
+      </c>
+      <c r="E95">
+        <v>-0.07506562858758489</v>
+      </c>
+      <c r="F95">
+        <v>-0.1036557880011125</v>
+      </c>
+      <c r="G95">
+        <v>-0.03454426506234217</v>
+      </c>
+      <c r="H95">
+        <v>0.04518412517532909</v>
+      </c>
+      <c r="I95">
+        <v>-0.08537841451860627</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.003511003872369744</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.001583574953542023</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01809517541836452</v>
+      </c>
+      <c r="E97">
+        <v>0.002057857885579717</v>
+      </c>
+      <c r="F97">
+        <v>-0.002195725999560606</v>
+      </c>
+      <c r="G97">
+        <v>-0.01860010672196388</v>
+      </c>
+      <c r="H97">
+        <v>0.00450517101625148</v>
+      </c>
+      <c r="I97">
+        <v>-0.008159549742152659</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1069342979810139</v>
+        <v>0.1304071757006086</v>
       </c>
       <c r="C98">
-        <v>0.09480583917564471</v>
+        <v>-0.1424942901595136</v>
       </c>
       <c r="D98">
-        <v>0.115614504491583</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01572991077208663</v>
+      </c>
+      <c r="E98">
+        <v>-0.1407137267216601</v>
+      </c>
+      <c r="F98">
+        <v>-0.2482666679816816</v>
+      </c>
+      <c r="G98">
+        <v>0.08019652509566494</v>
+      </c>
+      <c r="H98">
+        <v>0.2531538941727327</v>
+      </c>
+      <c r="I98">
+        <v>0.3248933824486059</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.006329387817504845</v>
+        <v>0.005636812979402972</v>
       </c>
       <c r="C101">
-        <v>0.02874349599954254</v>
+        <v>-0.05727258403553896</v>
       </c>
       <c r="D101">
-        <v>0.06936716643007032</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03068992209728287</v>
+      </c>
+      <c r="E101">
+        <v>-0.1102261883540597</v>
+      </c>
+      <c r="F101">
+        <v>0.02406218120829751</v>
+      </c>
+      <c r="G101">
+        <v>0.05002037427368362</v>
+      </c>
+      <c r="H101">
+        <v>0.1040736984018372</v>
+      </c>
+      <c r="I101">
+        <v>-0.1780628931872335</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.0666244036764724</v>
+        <v>0.02528680486888875</v>
       </c>
       <c r="C102">
-        <v>0.1202239392687445</v>
+        <v>-0.08648964698333543</v>
       </c>
       <c r="D102">
-        <v>0.004909213385564306</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04242341756956523</v>
+      </c>
+      <c r="E102">
+        <v>0.04646170939873664</v>
+      </c>
+      <c r="F102">
+        <v>-0.0388942310403911</v>
+      </c>
+      <c r="G102">
+        <v>0.01075585552432957</v>
+      </c>
+      <c r="H102">
+        <v>-0.06938357060373206</v>
+      </c>
+      <c r="I102">
+        <v>-0.01373427297205521</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
